--- a/z0bug_odoo/z0bug_odoo/data/asset_asset.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/asset_asset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -95,16 +95,18 @@
   </si>
   <si>
     <t xml:space="preserve">PWERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;2-10-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -177,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,10 +192,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,10 +202,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -230,10 +224,10 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
@@ -283,7 +277,7 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -292,7 +286,7 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="n">
@@ -304,7 +298,7 @@
       <c r="I2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -315,7 +309,7 @@
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -324,7 +318,7 @@
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2" t="n">
@@ -333,7 +327,7 @@
       <c r="H3" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -344,7 +338,7 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -353,14 +347,16 @@
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
